--- a/output1.xlsx
+++ b/output1.xlsx
@@ -975,10 +975,10 @@
         <v>0.02267863863100521</v>
       </c>
       <c r="D32">
-        <v>2.463084978744754e-05</v>
+        <v>2.463084978744754E-05</v>
       </c>
       <c r="E32">
-        <v>2.463084978744754e-05</v>
+        <v>2.463084978744754E-05</v>
       </c>
     </row>
     <row r="33" spans="1:5">

--- a/output1.xlsx
+++ b/output1.xlsx
@@ -731,16 +731,16 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>0.223994075084448</v>
+        <v>0.2268834335864397</v>
       </c>
       <c r="C18">
-        <v>0.004476315920186198</v>
+        <v>0.004587099460795689</v>
       </c>
       <c r="D18">
-        <v>0.01240143137652729</v>
+        <v>0.01162462426637402</v>
       </c>
       <c r="E18">
-        <v>0.01240143137652729</v>
+        <v>0.01162462426637402</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -833,16 +833,16 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <v>0.3369636249094788</v>
+        <v>0.3420144880071857</v>
       </c>
       <c r="C24">
-        <v>0.02782528153715857</v>
+        <v>0.02935839122581814</v>
       </c>
       <c r="D24">
-        <v>0.0004004455758549611</v>
+        <v>0.0006420713965977331</v>
       </c>
       <c r="E24">
-        <v>0.0004004455758549611</v>
+        <v>0.0006420713965977331</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -867,16 +867,16 @@
         <v>16</v>
       </c>
       <c r="B26">
-        <v>0.1619584261435738</v>
+        <v>0.1590182883143583</v>
       </c>
       <c r="C26">
-        <v>0.005490727316240934</v>
+        <v>0.006137286583011589</v>
       </c>
       <c r="D26">
-        <v>0.0450926070440105</v>
+        <v>0.0459445034883757</v>
       </c>
       <c r="E26">
-        <v>0.0450926070440105</v>
+        <v>0.0459445034883757</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -901,16 +901,16 @@
         <v>17</v>
       </c>
       <c r="B28">
-        <v>0.2184890969625242</v>
+        <v>0.2212882486617274</v>
       </c>
       <c r="C28">
-        <v>0.0016673017611425</v>
+        <v>0.001713128700163265</v>
       </c>
       <c r="D28">
-        <v>0.01579761317971055</v>
+        <v>0.0149975614869238</v>
       </c>
       <c r="E28">
-        <v>0.01579761317971055</v>
+        <v>0.0149975614869238</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -935,16 +935,16 @@
         <v>18</v>
       </c>
       <c r="B30">
-        <v>0.08216361316204449</v>
+        <v>0.08306135620297604</v>
       </c>
       <c r="C30">
-        <v>0.1005716608193146</v>
+        <v>0.1002233640938108</v>
       </c>
       <c r="D30">
-        <v>0.1394090615458186</v>
+        <v>0.1385371493454696</v>
       </c>
       <c r="E30">
-        <v>0.1394090615458186</v>
+        <v>0.1385371493454696</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -969,16 +969,16 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>0.315975571395236</v>
+        <v>0.3136608967716278</v>
       </c>
       <c r="C32">
-        <v>0.02267863863100521</v>
+        <v>0.02286201530138595</v>
       </c>
       <c r="D32">
-        <v>2.463084978744754E-05</v>
+        <v>0.0001010357733834768</v>
       </c>
       <c r="E32">
-        <v>2.463084978744754E-05</v>
+        <v>0.0001010357733834768</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>20</v>
       </c>
       <c r="B34">
-        <v>0.2352100170166331</v>
+        <v>0.2382869608993972</v>
       </c>
       <c r="C34">
-        <v>0.006495340861682443</v>
+        <v>0.006723346660043383</v>
       </c>
       <c r="D34">
-        <v>0.009216065239725058</v>
+        <v>0.008510334304766481</v>
       </c>
       <c r="E34">
-        <v>0.009216065239725058</v>
+        <v>0.008510334304766481</v>
       </c>
     </row>
     <row r="35" spans="1:5">

--- a/output1.xlsx
+++ b/output1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>max</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>m05</t>
-  </si>
-  <si>
-    <t>m06</t>
   </si>
   <si>
     <t>m08</t>
@@ -434,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -833,16 +830,16 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <v>0.3420144880071857</v>
+        <v>0.1590182883143583</v>
       </c>
       <c r="C24">
-        <v>0.02935839122581814</v>
+        <v>0.006137286583011589</v>
       </c>
       <c r="D24">
-        <v>0.0006420713965977331</v>
+        <v>0.0459445034883757</v>
       </c>
       <c r="E24">
-        <v>0.0006420713965977331</v>
+        <v>0.0459445034883757</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -850,16 +847,16 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>0.2870686011435331</v>
+        <v>0.1688269787410943</v>
       </c>
       <c r="C25">
-        <v>0.01525891391277167</v>
+        <v>0.007741381956503333</v>
       </c>
       <c r="D25">
-        <v>0.001187021406517661</v>
+        <v>0.05534634359612711</v>
       </c>
       <c r="E25">
-        <v>0.001187021406517661</v>
+        <v>0.05534634359612711</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -867,16 +864,16 @@
         <v>16</v>
       </c>
       <c r="B26">
-        <v>0.1590182883143583</v>
+        <v>0.2212882486617274</v>
       </c>
       <c r="C26">
-        <v>0.006137286583011589</v>
+        <v>0.001713128700163265</v>
       </c>
       <c r="D26">
-        <v>0.0459445034883757</v>
+        <v>0.0149975614869238</v>
       </c>
       <c r="E26">
-        <v>0.0459445034883757</v>
+        <v>0.0149975614869238</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -884,16 +881,16 @@
         <v>16</v>
       </c>
       <c r="B27">
-        <v>0.1688269787410943</v>
+        <v>0.3646114505633699</v>
       </c>
       <c r="C27">
-        <v>0.007741381956503333</v>
+        <v>0.02956177459644656</v>
       </c>
       <c r="D27">
-        <v>0.05534634359612711</v>
+        <v>0.006108769212842854</v>
       </c>
       <c r="E27">
-        <v>0.05534634359612711</v>
+        <v>0.006108769212842854</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -901,16 +898,16 @@
         <v>17</v>
       </c>
       <c r="B28">
-        <v>0.2212882486617274</v>
+        <v>0.08306135620297604</v>
       </c>
       <c r="C28">
-        <v>0.001713128700163265</v>
+        <v>0.1002233640938108</v>
       </c>
       <c r="D28">
-        <v>0.0149975614869238</v>
+        <v>0.1385371493454696</v>
       </c>
       <c r="E28">
-        <v>0.0149975614869238</v>
+        <v>0.1385371493454696</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -918,16 +915,16 @@
         <v>17</v>
       </c>
       <c r="B29">
-        <v>0.3646114505633699</v>
+        <v>0.0285594618498793</v>
       </c>
       <c r="C29">
-        <v>0.02956177459644656</v>
+        <v>0.1202598822842194</v>
       </c>
       <c r="D29">
-        <v>0.006108769212842854</v>
+        <v>0.2145125856817762</v>
       </c>
       <c r="E29">
-        <v>0.006108769212842854</v>
+        <v>0.2145125856817762</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -935,16 +932,16 @@
         <v>18</v>
       </c>
       <c r="B30">
-        <v>0.08306135620297604</v>
+        <v>0.3136608967716278</v>
       </c>
       <c r="C30">
-        <v>0.1002233640938108</v>
+        <v>0.02286201530138595</v>
       </c>
       <c r="D30">
-        <v>0.1385371493454696</v>
+        <v>0.0001010357733834768</v>
       </c>
       <c r="E30">
-        <v>0.1385371493454696</v>
+        <v>0.0001010357733834768</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -952,16 +949,16 @@
         <v>18</v>
       </c>
       <c r="B31">
-        <v>0.0285594618498793</v>
+        <v>0.3068577088686985</v>
       </c>
       <c r="C31">
-        <v>0.1202598822842194</v>
+        <v>0.01894244787734816</v>
       </c>
       <c r="D31">
-        <v>0.2145125856817762</v>
+        <v>0.0001738556507370039</v>
       </c>
       <c r="E31">
-        <v>0.2145125856817762</v>
+        <v>0.0001738556507370039</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -969,16 +966,16 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>0.3136608967716278</v>
+        <v>0.2382869608993972</v>
       </c>
       <c r="C32">
-        <v>0.02286201530138595</v>
+        <v>0.006723346660043383</v>
       </c>
       <c r="D32">
-        <v>0.0001010357733834768</v>
+        <v>0.008510334304766481</v>
       </c>
       <c r="E32">
-        <v>0.0001010357733834768</v>
+        <v>0.008510334304766481</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -986,49 +983,15 @@
         <v>19</v>
       </c>
       <c r="B33">
-        <v>0.3068577088686985</v>
+        <v>0.3569415360699646</v>
       </c>
       <c r="C33">
-        <v>0.01894244787734816</v>
+        <v>0.03282661876005658</v>
       </c>
       <c r="D33">
-        <v>0.0001738556507370039</v>
+        <v>0.001740621767608199</v>
       </c>
       <c r="E33">
-        <v>0.0001738556507370039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34">
-        <v>0.2382869608993972</v>
-      </c>
-      <c r="C34">
-        <v>0.006723346660043383</v>
-      </c>
-      <c r="D34">
-        <v>0.008510334304766481</v>
-      </c>
-      <c r="E34">
-        <v>0.008510334304766481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35">
-        <v>0.3569415360699646</v>
-      </c>
-      <c r="C35">
-        <v>0.03282661876005658</v>
-      </c>
-      <c r="D35">
-        <v>0.001740621767608199</v>
-      </c>
-      <c r="E35">
         <v>0.001740621767608199</v>
       </c>
     </row>
